--- a/src/Data/data.xlsx
+++ b/src/Data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144" count="144">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166" count="166">
   <x:si>
     <x:t>question</x:t>
   </x:si>
@@ -422,6 +422,72 @@
   </x:si>
   <x:si>
     <x:t>在牙科診斷上嚴格來說，牙齦炎是屬於軟組織疾病僅限於表面發炎，而牙周炎則牽涉到底下齒槽骨的破壞表示發炎程度已往下延伸。廣義的牙周病則包含以上兩者。因此建議有牙周病傾向之患者能早期注意早期治療，以免慢性破壞而無法恢復。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q：根管治療成功率，有哪些因素會影響成功率？何時會痛？後續的贗復？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A：根管治療的成功率，根據不同文獻、定義標準、治療品質、牙齒本身狀況，都有不相同的結果。一般來說，合於標準的根管治療其成功率相當高，大概介於80%-95%。除了成功率之外，根管治療後的牙齒存活率也是相當高。所謂成功率﹝success rate﹞多數調查是以臨床是否有症狀、X光片上是否存在根尖病變作為主要評斷；而所謂存活率，則是以受治療牙齒是否存在患者口腔內為依據，為較寬鬆的標準。根據一個國內所作的調查，根管治療過後的牙齒期五年存活率為92.9%，也就是超過百分之九十的牙齒，治療過後五年依舊在患者口中行使功能。影響治療成功的因素很多，主要可分成牙齒相關因素和治療相關因素。若牙齒於治療前即出現根尖病變﹝牙根尖周圍炎﹞，代表根管內部已有感染，此時治療成功率顯著低於根尖沒有病變的狀況。另外，重新治療﹝先前根管治療失敗﹞以及併有牙周病的牙齒其成功率也較低。根管治療過後，倘若未進一步接受贗復，也會影響成功率。至於和治療相關的因素，若醫師能依照標準的程序，以橡皮布障隔離牙齒，加上適當的根管清潔擴大、沖洗、充填，即能將成功率大為提高。每次治療過程後，都有可能發生疼痛，發生的原因並不完全清楚，可能來自於：治療過程間器械及沖洗液體對組織的刺激、根管內菌種的改變而引發身體免疫反應、治療後根尖區組織壓力變化等。而所謂症狀突發﹝flare up﹞指的是於根管治療﹝完成或未完成﹞後數小時至數天內，患者感受到明顯的疼痛或腫脹，必須聯絡醫師接受進一步處理。這樣的狀況發生率很低，文獻顯示大約為1.5%至5.5%。若治療前牙髓已經壞死感染或根尖組織出現病變，在這樣的狀況下出現症狀突發的機率較高。根管治療後，建議盡快完成後續的贗復治療。一方面可以避免細菌再有機會進入根管系統內造成感染，另一方面也可以避免牙齒及牙根斷裂。根管治療後的牙齒齒質並不會比正常齒質脆弱，但由於需要接受治療的牙齒絕大多數於術前皆有範圍較大較深的齲齒窩洞，也就是原本即有較少的健康齒質，本身就比健康牙齒脆弱，故建議以適當的贗復體增強牙齒抗斷裂能力。根據一個文獻統計，根管治療完成後八年內遭拔除的牙齒，其中85%都沒有適當的贗復體；另一個研究顯示，根管治療後牙齒若未以牙套贗復，日後遭拔除的機會是有牙套牙齒的六倍。所謂合適的贗復，包括牙套、陶瓷嵌體、複合樹脂等，最重要的是能夠覆蓋咬合面﹝full coverage﹞；至於以何種方是最恰當，則要針對牙齒本身的條件、所剩齒質多寡、咬合狀態等進行評估方能決定。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q：根管斷針的風險及後續處理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A：斷針﹝seperated instrument﹞是根管治療可能會發生的風險之一，由於根管系統極度複雜、彎曲，加上治療所使用的器械皆非常細小，因此便可能發生器械斷裂並留置於根管內的狀況。斷針發生的機率並不高，約為0.5至5%，且較常發生於細小彎曲的根管。若器械斷裂於根管內，首先會設法將斷裂的器械取出，此時可能會需要借助一些特殊的儀器或器械﹝顯微鏡及超音波器械等。若無法取出，或是考量到取出斷裂器械的風險過大﹝例如：損失過多健康齒質﹞，則可以繞過方式完成根尖處清潔。假使器械無法取出，留置於根管內的器械，並不會造成身體的不良反應，也不會影響治療成功率；牙齒術前是否有感染、是否有根尖病變以及器械斷裂前根管清潔程度，才是影響治療預後的因素。倘若經過上述那些處理方式，根管治療依舊失敗，則可考慮以根尖手術、牙齒再植術、牙根切除術等方式進一步處理。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q：根管治療常見的失狀況及原因，如何治再治療，或必須拔除？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A：根管治療失敗，可能出現的狀況就是症狀不消、症狀再次出現、X光片上出現根尖病變或根尖病變擴大。根管治療失敗的主要原因是來自於無法徹底消滅根管系統內的細菌並完全消除感染源。一般來說，除了主要根管之外，根管還有許多側分支。此外，根管間也常存在許多窄小的連結，這些都是無法徹底清潔、細菌可能殘留的地方，也就是治療失敗的主因。另外，失敗的原因也可能是牙根外感染﹝extraradicular infection﹞、身體異物反應﹝foreign body reaction﹞、囊腫﹝cyst﹞等。倘若先前根管治療失敗，則可考慮以根管再治療﹝retreatment﹞、牙根尖手術或牙齒再植術等方式處理。所謂根管再治療，是使用器械、溶劑將根管內充填物﹝釘柱、馬來膠﹞取出，並重新進行根管的清潔與消毒，完成後再將根管封填以避免再次感染。而所謂根尖手術是指將牙齦翻瓣，清除根尖區的病變，並切除一小部份牙根尖、已超音波器械自根尖逆向進行清潔，最後以特殊材料完成充填。而牙齒再植術則是指將牙齒拔出後，切除牙根尖並進行逆向根管治療，之後再將牙齒植回齒槽。另一個失敗的原因是縱向牙根斷裂。縱向牙根斷裂並不容易診斷，幾乎無法由X光片上辨識，只能由一些臨床表徵進行推斷。或是節由顯微鏡來診斷。一般來說，縱向牙根斷裂的牙齒便無法治療，必須拔除。但若斷裂只局限於牙根尖或單一牙根，進行根尖手術或牙根切除術等是可以保留牙齒的方式之一。只是，這類牙齒的預後通常都不佳。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q：我的牙齒根管治療回診了數次，每次治療時及回去之後都會痛，是不是醫師技術不好？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A：根管治療基本上是一種清創的動作，類似外科醫師清潔一有異物或汙染的傷口，在清掉感染發炎的組織的同時，會刺激到周圍正常的組織，因此治療之後可能會有不適。大多數患者過幾天就會漸漸不痛，但少數患者會感到較明顯的疼痛，必須藉助止痛藥物，更有少數人必須再由牙醫師徹底清潔過根管，才能解除症狀。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q：本來只是咬了會痛，做了根管治療之後，整個腫起來，這是正常的嗎？還是被醫生弄得更糟呢？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A：就如前言所述，症狀的變化，與根管內容物﹝殘留牙髓或細菌等微生物﹞，以及牙根周圍免疫細胞間的互動有關。治療前症狀較輕微，常是正兩方處於平衡狀態。牙醫師開始治療時，其實事先破壞這個平衡狀態，再經由細菌等微生物數量的減少，身體達到新的平衡狀態來解除症狀。也就是說，如果細菌等微生物的數量較多，一時之間無法徹底被消滅，就有可能因為較嚴重的免疫反應，進而引起症狀的嚴重化。這種現象，通常在徹底清潔過根管，減少為生物的數量後，就可以緩解。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q：醫師說我的牙齒需要根管治療，但治療時可能有斷針的風險，斷針嚴重嗎？該如何後續處理？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A:斷針通常是因為極為狹小的根管，卡住進入根管的器械，當卡住的力量超過器械的極限時，就會遺留一段器械片段在根管內。斷針所引起最大的問題在於，卡住器械的根管空間，一直到牙根尖的部份，將難以再被清潔到。絕不是這段器械片段，會引起嚴重的的免疫反應。請思考：被徹底清潔過的根管空間，最終將被許多外來的物質填滿，所以這空間是可以容納外來異物的。所以以徹底清潔的角度來說，發生斷針時，最好由有移除斷針經驗的牙醫師﹝通常是牙髓病專科醫師﹞，先評估是否可能取出斷針，以及是否能兼顧拿取斷針與保留牙齒結構再開始嘗試拿取。如果評估後不建議取出斷針，則建議比較無法完全鑽通清潔的鈣化根管的情況，將其他未被堵塞的根管空間，徹底清潔過後並妥善贗復，後續追蹤是否接受根尖手術。絕大部分情形下，發生斷針並不需要將牙齒拔除。</x:t>
+  </x:si>
+  <x:si>
+    <x:t> </x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>Q：治療半天，根管治療有可能不成功嗎？有哪些病患個人的因素或牙齒的因素會影響根管治療的成功率？如何再治療或必須拔除？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A：到目前為止，並沒有一種醫療行為，可以跟患者保證有百分之百的成功率，根管治療並不例外。患者本身除非有未良好控制的糖尿病等明顯影響免疫力的因素存在，大部分情形下不會影響預後。牙齒的因素則主要與根管內細菌等微生物能否受到控制，以及牙齒殘留結構是否堅固兩個因素影響。再治療通常牽涉到牙冠人工復形﹝樹酯或銀粉﹞或贗復物﹝牙冠、冠心及釘柱﹞的移除。根管內充填材料也必須移除，再來就是重新將根管空間清潔乾淨。除非是牙冠有較深裂齒或牙根有垂直斷裂等，因主結構已受損，才必須將牙齒拔除。如果非手術性根管治療未成功，通常可接受牙根尖周圍手術來解決問題。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q：醫生說我的根管治療要轉給專科醫師處理，是不是醫生技術不好？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A：根管形態及根管數目，每顆牙都不一樣，因此治療的困難度，會因人因牙位而異，醫師會應用自己的本職學能，幫患者解決問題。每位醫師可能都會遇到超越自己能力極限的困難根管，此時將患者轉給更適合的醫師處理，反而是更負責仼且對患者更好的表現。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q:根管治療後對牙齒有甚麼影響？該如何補救？我的醫師吿訴我要做釘子和牙套，那是很常見的治療嗎？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A：根管治療對牙齒明顯的影響是結構的喪失。牙冠部份通常是齲齒結構的喪失，牙根部分則是在清除根管內容物時，為了達到有效的清潔，必要的犧牲。也就是說，完整治療時的牙齒，應該會較治療前乾淨，但會比治療前脆弱。牙冠的殘留結構，可藉由牙套的包覆，得到比較好的保護；牙釘的作用，則是補足牙冠以缺損的部份，讓牙套有完整的冠心可包覆，增加牙冠的固定性。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Q：為什麼抽神經不一次完成，要分很多次？是不是醫師技術不好？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A：因為根管形態複雜，自然有時候無法於開始一或二次治療時，就可以將根管內容物徹底清乾淨。有時候會因為殘留牙髓或殘留細菌﹝或其他微生物﹞與牙根周圍免疫細胞間的反應，引起治療後症狀的變化。所以當您有症狀時，通常很難由原先不在場的第二位醫師來評斷前一位醫師的治療是否有問題。</x:t>
   </x:si>
   <x:si>
     <x:t>什麼是牙周病？</x:t>
@@ -1414,6 +1480,94 @@
         <x:v>143</x:v>
       </x:c>
     </x:row>
+    <x:row r="73" spans="1:2">
+      <x:c r="A73" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:2">
+      <x:c r="A74" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:2">
+      <x:c r="A75" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:2">
+      <x:c r="A76" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:2">
+      <x:c r="A77" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:2">
+      <x:c r="A78" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:2">
+      <x:c r="A79" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:2">
+      <x:c r="A80" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:2">
+      <x:c r="A81" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:2">
+      <x:c r="A82" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:2">
+      <x:c r="A83" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/src/Data/data.xlsx
+++ b/src/Data/data.xlsx
@@ -424,37 +424,37 @@
     <x:t>在牙科診斷上嚴格來說，牙齦炎是屬於軟組織疾病僅限於表面發炎，而牙周炎則牽涉到底下齒槽骨的破壞表示發炎程度已往下延伸。廣義的牙周病則包含以上兩者。因此建議有牙周病傾向之患者能早期注意早期治療，以免慢性破壞而無法恢復。</x:t>
   </x:si>
   <x:si>
-    <x:t>Q：根管治療成功率，有哪些因素會影響成功率？何時會痛？後續的贗復？</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A：根管治療的成功率，根據不同文獻、定義標準、治療品質、牙齒本身狀況，都有不相同的結果。一般來說，合於標準的根管治療其成功率相當高，大概介於80%-95%。除了成功率之外，根管治療後的牙齒存活率也是相當高。所謂成功率﹝success rate﹞多數調查是以臨床是否有症狀、X光片上是否存在根尖病變作為主要評斷；而所謂存活率，則是以受治療牙齒是否存在患者口腔內為依據，為較寬鬆的標準。根據一個國內所作的調查，根管治療過後的牙齒期五年存活率為92.9%，也就是超過百分之九十的牙齒，治療過後五年依舊在患者口中行使功能。影響治療成功的因素很多，主要可分成牙齒相關因素和治療相關因素。若牙齒於治療前即出現根尖病變﹝牙根尖周圍炎﹞，代表根管內部已有感染，此時治療成功率顯著低於根尖沒有病變的狀況。另外，重新治療﹝先前根管治療失敗﹞以及併有牙周病的牙齒其成功率也較低。根管治療過後，倘若未進一步接受贗復，也會影響成功率。至於和治療相關的因素，若醫師能依照標準的程序，以橡皮布障隔離牙齒，加上適當的根管清潔擴大、沖洗、充填，即能將成功率大為提高。每次治療過程後，都有可能發生疼痛，發生的原因並不完全清楚，可能來自於：治療過程間器械及沖洗液體對組織的刺激、根管內菌種的改變而引發身體免疫反應、治療後根尖區組織壓力變化等。而所謂症狀突發﹝flare up﹞指的是於根管治療﹝完成或未完成﹞後數小時至數天內，患者感受到明顯的疼痛或腫脹，必須聯絡醫師接受進一步處理。這樣的狀況發生率很低，文獻顯示大約為1.5%至5.5%。若治療前牙髓已經壞死感染或根尖組織出現病變，在這樣的狀況下出現症狀突發的機率較高。根管治療後，建議盡快完成後續的贗復治療。一方面可以避免細菌再有機會進入根管系統內造成感染，另一方面也可以避免牙齒及牙根斷裂。根管治療後的牙齒齒質並不會比正常齒質脆弱，但由於需要接受治療的牙齒絕大多數於術前皆有範圍較大較深的齲齒窩洞，也就是原本即有較少的健康齒質，本身就比健康牙齒脆弱，故建議以適當的贗復體增強牙齒抗斷裂能力。根據一個文獻統計，根管治療完成後八年內遭拔除的牙齒，其中85%都沒有適當的贗復體；另一個研究顯示，根管治療後牙齒若未以牙套贗復，日後遭拔除的機會是有牙套牙齒的六倍。所謂合適的贗復，包括牙套、陶瓷嵌體、複合樹脂等，最重要的是能夠覆蓋咬合面﹝full coverage﹞；至於以何種方是最恰當，則要針對牙齒本身的條件、所剩齒質多寡、咬合狀態等進行評估方能決定。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q：根管斷針的風險及後續處理</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A：斷針﹝seperated instrument﹞是根管治療可能會發生的風險之一，由於根管系統極度複雜、彎曲，加上治療所使用的器械皆非常細小，因此便可能發生器械斷裂並留置於根管內的狀況。斷針發生的機率並不高，約為0.5至5%，且較常發生於細小彎曲的根管。若器械斷裂於根管內，首先會設法將斷裂的器械取出，此時可能會需要借助一些特殊的儀器或器械﹝顯微鏡及超音波器械等。若無法取出，或是考量到取出斷裂器械的風險過大﹝例如：損失過多健康齒質﹞，則可以繞過方式完成根尖處清潔。假使器械無法取出，留置於根管內的器械，並不會造成身體的不良反應，也不會影響治療成功率；牙齒術前是否有感染、是否有根尖病變以及器械斷裂前根管清潔程度，才是影響治療預後的因素。倘若經過上述那些處理方式，根管治療依舊失敗，則可考慮以根尖手術、牙齒再植術、牙根切除術等方式進一步處理。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q：根管治療常見的失狀況及原因，如何治再治療，或必須拔除？</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A：根管治療失敗，可能出現的狀況就是症狀不消、症狀再次出現、X光片上出現根尖病變或根尖病變擴大。根管治療失敗的主要原因是來自於無法徹底消滅根管系統內的細菌並完全消除感染源。一般來說，除了主要根管之外，根管還有許多側分支。此外，根管間也常存在許多窄小的連結，這些都是無法徹底清潔、細菌可能殘留的地方，也就是治療失敗的主因。另外，失敗的原因也可能是牙根外感染﹝extraradicular infection﹞、身體異物反應﹝foreign body reaction﹞、囊腫﹝cyst﹞等。倘若先前根管治療失敗，則可考慮以根管再治療﹝retreatment﹞、牙根尖手術或牙齒再植術等方式處理。所謂根管再治療，是使用器械、溶劑將根管內充填物﹝釘柱、馬來膠﹞取出，並重新進行根管的清潔與消毒，完成後再將根管封填以避免再次感染。而所謂根尖手術是指將牙齦翻瓣，清除根尖區的病變，並切除一小部份牙根尖、已超音波器械自根尖逆向進行清潔，最後以特殊材料完成充填。而牙齒再植術則是指將牙齒拔出後，切除牙根尖並進行逆向根管治療，之後再將牙齒植回齒槽。另一個失敗的原因是縱向牙根斷裂。縱向牙根斷裂並不容易診斷，幾乎無法由X光片上辨識，只能由一些臨床表徵進行推斷。或是節由顯微鏡來診斷。一般來說，縱向牙根斷裂的牙齒便無法治療，必須拔除。但若斷裂只局限於牙根尖或單一牙根，進行根尖手術或牙根切除術等是可以保留牙齒的方式之一。只是，這類牙齒的預後通常都不佳。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q：我的牙齒根管治療回診了數次，每次治療時及回去之後都會痛，是不是醫師技術不好？</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A：根管治療基本上是一種清創的動作，類似外科醫師清潔一有異物或汙染的傷口，在清掉感染發炎的組織的同時，會刺激到周圍正常的組織，因此治療之後可能會有不適。大多數患者過幾天就會漸漸不痛，但少數患者會感到較明顯的疼痛，必須藉助止痛藥物，更有少數人必須再由牙醫師徹底清潔過根管，才能解除症狀。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q：本來只是咬了會痛，做了根管治療之後，整個腫起來，這是正常的嗎？還是被醫生弄得更糟呢？</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A：就如前言所述，症狀的變化，與根管內容物﹝殘留牙髓或細菌等微生物﹞，以及牙根周圍免疫細胞間的互動有關。治療前症狀較輕微，常是正兩方處於平衡狀態。牙醫師開始治療時，其實事先破壞這個平衡狀態，再經由細菌等微生物數量的減少，身體達到新的平衡狀態來解除症狀。也就是說，如果細菌等微生物的數量較多，一時之間無法徹底被消滅，就有可能因為較嚴重的免疫反應，進而引起症狀的嚴重化。這種現象，通常在徹底清潔過根管，減少為生物的數量後，就可以緩解。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q：醫師說我的牙齒需要根管治療，但治療時可能有斷針的風險，斷針嚴重嗎？該如何後續處理？</x:t>
+    <x:t>根管治療成功率，有哪些因素會影響成功率？何時會痛？後續的贗復？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>根管治療的成功率，根據不同文獻、定義標準、治療品質、牙齒本身狀況，都有不相同的結果。一般來說，合於標準的根管治療其成功率相當高，大概介於80%-95%。除了成功率之外，根管治療後的牙齒存活率也是相當高。所謂成功率﹝success rate﹞多數調查是以臨床是否有症狀、X光片上是否存在根尖病變作為主要評斷；而所謂存活率，則是以受治療牙齒是否存在患者口腔內為依據，為較寬鬆的標準。根據一個國內所作的調查，根管治療過後的牙齒期五年存活率為92.9%，也就是超過百分之九十的牙齒，治療過後五年依舊在患者口中行使功能。影響治療成功的因素很多，主要可分成牙齒相關因素和治療相關因素。若牙齒於治療前即出現根尖病變﹝牙根尖周圍炎﹞，代表根管內部已有感染，此時治療成功率顯著低於根尖沒有病變的狀況。另外，重新治療﹝先前根管治療失敗﹞以及併有牙周病的牙齒其成功率也較低。根管治療過後，倘若未進一步接受贗復，也會影響成功率。至於和治療相關的因素，若醫師能依照標準的程序，以橡皮布障隔離牙齒，加上適當的根管清潔擴大、沖洗、充填，即能將成功率大為提高。每次治療過程後，都有可能發生疼痛，發生的原因並不完全清楚，可能來自於：治療過程間器械及沖洗液體對組織的刺激、根管內菌種的改變而引發身體免疫反應、治療後根尖區組織壓力變化等。而所謂症狀突發﹝flare up﹞指的是於根管治療﹝完成或未完成﹞後數小時至數天內，患者感受到明顯的疼痛或腫脹，必須聯絡醫師接受進一步處理。這樣的狀況發生率很低，文獻顯示大約為1.5%至5.5%。若治療前牙髓已經壞死感染或根尖組織出現病變，在這樣的狀況下出現症狀突發的機率較高。根管治療後，建議盡快完成後續的贗復治療。一方面可以避免細菌再有機會進入根管系統內造成感染，另一方面也可以避免牙齒及牙根斷裂。根管治療後的牙齒齒質並不會比正常齒質脆弱，但由於需要接受治療的牙齒絕大多數於術前皆有範圍較大較深的齲齒窩洞，也就是原本即有較少的健康齒質，本身就比健康牙齒脆弱，故建議以適當的贗復體增強牙齒抗斷裂能力。根據一個文獻統計，根管治療完成後八年內遭拔除的牙齒，其中85%都沒有適當的贗復體；另一個研究顯示，根管治療後牙齒若未以牙套贗復，日後遭拔除的機會是有牙套牙齒的六倍。所謂合適的贗復，包括牙套、陶瓷嵌體、複合樹脂等，最重要的是能夠覆蓋咬合面﹝full coverage﹞；至於以何種方是最恰當，則要針對牙齒本身的條件、所剩齒質多寡、咬合狀態等進行評估方能決定。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>根管斷針的風險及後續處理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>斷針﹝seperated instrument﹞是根管治療可能會發生的風險之一，由於根管系統極度複雜、彎曲，加上治療所使用的器械皆非常細小，因此便可能發生器械斷裂並留置於根管內的狀況。斷針發生的機率並不高，約為0.5至5%，且較常發生於細小彎曲的根管。若器械斷裂於根管內，首先會設法將斷裂的器械取出，此時可能會需要借助一些特殊的儀器或器械﹝顯微鏡及超音波器械等。若無法取出，或是考量到取出斷裂器械的風險過大﹝例如：損失過多健康齒質﹞，則可以繞過方式完成根尖處清潔。假使器械無法取出，留置於根管內的器械，並不會造成身體的不良反應，也不會影響治療成功率；牙齒術前是否有感染、是否有根尖病變以及器械斷裂前根管清潔程度，才是影響治療預後的因素。倘若經過上述那些處理方式，根管治療依舊失敗，則可考慮以根尖手術、牙齒再植術、牙根切除術等方式進一步處理。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>根管治療常見的失狀況及原因，如何治再治療，或必須拔除？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>根管治療失敗，可能出現的狀況就是症狀不消、症狀再次出現、X光片上出現根尖病變或根尖病變擴大。根管治療失敗的主要原因是來自於無法徹底消滅根管系統內的細菌並完全消除感染源。一般來說，除了主要根管之外，根管還有許多側分支。此外，根管間也常存在許多窄小的連結，這些都是無法徹底清潔、細菌可能殘留的地方，也就是治療失敗的主因。另外，失敗的原因也可能是牙根外感染﹝extraradicular infection﹞、身體異物反應﹝foreign body reaction﹞、囊腫﹝cyst﹞等。倘若先前根管治療失敗，則可考慮以根管再治療﹝retreatment﹞、牙根尖手術或牙齒再植術等方式處理。所謂根管再治療，是使用器械、溶劑將根管內充填物﹝釘柱、馬來膠﹞取出，並重新進行根管的清潔與消毒，完成後再將根管封填以避免再次感染。而所謂根尖手術是指將牙齦翻瓣，清除根尖區的病變，並切除一小部份牙根尖、已超音波器械自根尖逆向進行清潔，最後以特殊材料完成充填。而牙齒再植術則是指將牙齒拔出後，切除牙根尖並進行逆向根管治療，之後再將牙齒植回齒槽。另一個失敗的原因是縱向牙根斷裂。縱向牙根斷裂並不容易診斷，幾乎無法由X光片上辨識，只能由一些臨床表徵進行推斷。或是節由顯微鏡來診斷。一般來說，縱向牙根斷裂的牙齒便無法治療，必須拔除。但若斷裂只局限於牙根尖或單一牙根，進行根尖手術或牙根切除術等是可以保留牙齒的方式之一。只是，這類牙齒的預後通常都不佳。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>我的牙齒根管治療回診了數次，每次治療時及回去之後都會痛，是不是醫師技術不好？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>根管治療基本上是一種清創的動作，類似外科醫師清潔一有異物或汙染的傷口，在清掉感染發炎的組織的同時，會刺激到周圍正常的組織，因此治療之後可能會有不適。大多數患者過幾天就會漸漸不痛，但少數患者會感到較明顯的疼痛，必須藉助止痛藥物，更有少數人必須再由牙醫師徹底清潔過根管，才能解除症狀。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>本來只是咬了會痛，做了根管治療之後，整個腫起來，這是正常的嗎？還是被醫生弄得更糟呢？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>就如前言所述，症狀的變化，與根管內容物﹝殘留牙髓或細菌等微生物﹞，以及牙根周圍免疫細胞間的互動有關。治療前症狀較輕微，常是正兩方處於平衡狀態。牙醫師開始治療時，其實事先破壞這個平衡狀態，再經由細菌等微生物數量的減少，身體達到新的平衡狀態來解除症狀。也就是說，如果細菌等微生物的數量較多，一時之間無法徹底被消滅，就有可能因為較嚴重的免疫反應，進而引起症狀的嚴重化。這種現象，通常在徹底清潔過根管，減少為生物的數量後，就可以緩解。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>醫師說我的牙齒需要根管治療，但治療時可能有斷針的風險，斷針嚴重嗎？該如何後續處理？</x:t>
   </x:si>
   <x:si>
     <x:t>A:斷針通常是因為極為狹小的根管，卡住進入根管的器械，當卡住的力量超過器械的極限時，就會遺留一段器械片段在根管內。斷針所引起最大的問題在於，卡住器械的根管空間，一直到牙根尖的部份，將難以再被清潔到。絕不是這段器械片段，會引起嚴重的的免疫反應。請思考：被徹底清潔過的根管空間，最終將被許多外來的物質填滿，所以這空間是可以容納外來異物的。所以以徹底清潔的角度來說，發生斷針時，最好由有移除斷針經驗的牙醫師﹝通常是牙髓病專科醫師﹞，先評估是否可能取出斷針，以及是否能兼顧拿取斷針與保留牙齒結構再開始嘗試拿取。如果評估後不建議取出斷針，則建議比較無法完全鑽通清潔的鈣化根管的情況，將其他未被堵塞的根管空間，徹底清潔過後並妥善贗復，後續追蹤是否接受根尖手術。絕大部分情形下，發生斷針並不需要將牙齒拔除。</x:t>
@@ -466,28 +466,28 @@
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>Q：治療半天，根管治療有可能不成功嗎？有哪些病患個人的因素或牙齒的因素會影響根管治療的成功率？如何再治療或必須拔除？</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A：到目前為止，並沒有一種醫療行為，可以跟患者保證有百分之百的成功率，根管治療並不例外。患者本身除非有未良好控制的糖尿病等明顯影響免疫力的因素存在，大部分情形下不會影響預後。牙齒的因素則主要與根管內細菌等微生物能否受到控制，以及牙齒殘留結構是否堅固兩個因素影響。再治療通常牽涉到牙冠人工復形﹝樹酯或銀粉﹞或贗復物﹝牙冠、冠心及釘柱﹞的移除。根管內充填材料也必須移除，再來就是重新將根管空間清潔乾淨。除非是牙冠有較深裂齒或牙根有垂直斷裂等，因主結構已受損，才必須將牙齒拔除。如果非手術性根管治療未成功，通常可接受牙根尖周圍手術來解決問題。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q：醫生說我的根管治療要轉給專科醫師處理，是不是醫生技術不好？</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A：根管形態及根管數目，每顆牙都不一樣，因此治療的困難度，會因人因牙位而異，醫師會應用自己的本職學能，幫患者解決問題。每位醫師可能都會遇到超越自己能力極限的困難根管，此時將患者轉給更適合的醫師處理，反而是更負責仼且對患者更好的表現。</x:t>
+    <x:t>治療半天，根管治療有可能不成功嗎？有哪些病患個人的因素或牙齒的因素會影響根管治療的成功率？如何再治療或必須拔除？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>到目前為止，並沒有一種醫療行為，可以跟患者保證有百分之百的成功率，根管治療並不例外。患者本身除非有未良好控制的糖尿病等明顯影響免疫力的因素存在，大部分情形下不會影響預後。牙齒的因素則主要與根管內細菌等微生物能否受到控制，以及牙齒殘留結構是否堅固兩個因素影響。再治療通常牽涉到牙冠人工復形﹝樹酯或銀粉﹞或贗復物﹝牙冠、冠心及釘柱﹞的移除。根管內充填材料也必須移除，再來就是重新將根管空間清潔乾淨。除非是牙冠有較深裂齒或牙根有垂直斷裂等，因主結構已受損，才必須將牙齒拔除。如果非手術性根管治療未成功，通常可接受牙根尖周圍手術來解決問題。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>醫生說我的根管治療要轉給專科醫師處理，是不是醫生技術不好？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>根管形態及根管數目，每顆牙都不一樣，因此治療的困難度，會因人因牙位而異，醫師會應用自己的本職學能，幫患者解決問題。每位醫師可能都會遇到超越自己能力極限的困難根管，此時將患者轉給更適合的醫師處理，反而是更負責仼且對患者更好的表現。</x:t>
   </x:si>
   <x:si>
     <x:t>Q:根管治療後對牙齒有甚麼影響？該如何補救？我的醫師吿訴我要做釘子和牙套，那是很常見的治療嗎？</x:t>
   </x:si>
   <x:si>
-    <x:t>A：根管治療對牙齒明顯的影響是結構的喪失。牙冠部份通常是齲齒結構的喪失，牙根部分則是在清除根管內容物時，為了達到有效的清潔，必要的犧牲。也就是說，完整治療時的牙齒，應該會較治療前乾淨，但會比治療前脆弱。牙冠的殘留結構，可藉由牙套的包覆，得到比較好的保護；牙釘的作用，則是補足牙冠以缺損的部份，讓牙套有完整的冠心可包覆，增加牙冠的固定性。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q：為什麼抽神經不一次完成，要分很多次？是不是醫師技術不好？</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A：因為根管形態複雜，自然有時候無法於開始一或二次治療時，就可以將根管內容物徹底清乾淨。有時候會因為殘留牙髓或殘留細菌﹝或其他微生物﹞與牙根周圍免疫細胞間的反應，引起治療後症狀的變化。所以當您有症狀時，通常很難由原先不在場的第二位醫師來評斷前一位醫師的治療是否有問題。</x:t>
+    <x:t>根管治療對牙齒明顯的影響是結構的喪失。牙冠部份通常是齲齒結構的喪失，牙根部分則是在清除根管內容物時，為了達到有效的清潔，必要的犧牲。也就是說，完整治療時的牙齒，應該會較治療前乾淨，但會比治療前脆弱。牙冠的殘留結構，可藉由牙套的包覆，得到比較好的保護；牙釘的作用，則是補足牙冠以缺損的部份，讓牙套有完整的冠心可包覆，增加牙冠的固定性。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>為什麼抽神經不一次完成，要分很多次？是不是醫師技術不好？</x:t>
+  </x:si>
+  <x:si>
+    <x:t>因為根管形態複雜，自然有時候無法於開始一或二次治療時，就可以將根管內容物徹底清乾淨。有時候會因為殘留牙髓或殘留細菌﹝或其他微生物﹞與牙根周圍免疫細胞間的反應，引起治療後症狀的變化。所以當您有症狀時，通常很難由原先不在場的第二位醫師來評斷前一位醫師的治療是否有問題。</x:t>
   </x:si>
   <x:si>
     <x:t>什麼是牙周病？</x:t>

--- a/src/Data/data.xlsx
+++ b/src/Data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166" count="166">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188" count="188">
   <x:si>
     <x:t>question</x:t>
   </x:si>
@@ -422,6 +422,75 @@
   </x:si>
   <x:si>
     <x:t>在牙科診斷上嚴格來說，牙齦炎是屬於軟組織疾病僅限於表面發炎，而牙周炎則牽涉到底下齒槽骨的破壞表示發炎程度已往下延伸。廣義的牙周病則包含以上兩者。因此建議有牙周病傾向之患者能早期注意早期治療，以免慢性破壞而無法恢復。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>何謂人工植牙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>利用具有生物相容性的鈦金屬材料，製成螺釘等形狀，以外科手術植入顎骨中靜待一段癒合時間，與顎骨結合成一體，取代缺失的牙根作為假牙的支柱。人工植牙已經以各種型態存在好幾世紀了，只是近四十年來因為科技的發展，才能可靠的取代自然牙齒。
+在20世紀六十年代中期，Branemark醫師意外地發現當鈦圓柱體放置於骨肉，在三個月內不受其他影響癒合下，鈦植體與骨頭能完整結合承受強力。自此之後，牙科醫師開始提供病人植牙這個比傳統治療更好的選擇與服務。植牙的成功率在過去十年的統計約在90%~97% 之間。當我們將植體溫和的置入顎骨之後，由於鈦是生物相容性的金屬，能與骨頭產生結合，因此當植體與骨頭鍵結強度夠時，我們就可利用螺絲將牙冠或附連體鎖在植體上面來製作假牙。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>人工植牙的優點</x:t>
+  </x:si>
+  <x:si>
+    <x:t>人工植牙就是把類似牙根的鈦金屬植入口腔中齒槽骨中原有之牙根，並且鈦金屬牙根上製作假牙，以恢復其美觀及咀嚼功能，而上面的假牙又可分固定和活動兩種，口腔植牙術最先應用於全口無牙的病患，當牙齒拔除後齒槽骨會漸漸被吸收，造成傳統的假牙在美觀及功能上較難讓病患滿意，而牙科植體如果重植成功，將會大大減低齒槽骨的吸收現象，可以提供較好的穩固作用，於其上製作假牙，其穩定性及外觀均可得到滿意結果。植牙發展到現在並非只有全口無牙的病患才用。不論是單顆、多顆、全口無牙，或是需要全口修復的病患，均可考量，人工植牙的優點有下列幾點：1.  咬合力幾乎恢復原有牙齒的水準，這點是全口活動假牙所完全不能比的2.  減少齒槽骨的吸收3.  如果是單顆牙或少數幾顆牙，可以不用磨掉旁邊鄰近的健康牙4.  便利性，不再像活動假牙那樣的拿上拿下5.  極美觀，跟自己的牙齒差不多，也沒有像活動假牙的金屬掛勾6.  手術、骨整合、假牙製作這三個過程是植牙的必經過程，所以大約9~12 個月的時間才能全部完成，通常植牙成功率在二十年內為百分之99 以上，如果想要有高的成功率，在人工植牙前必須詳細的檢查病人的身體狀況，包括全身性疾病還有家族性疾病等等。</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 人工植牙的優缺點</x:t>
+  </x:si>
+  <x:si>
+    <x:t>人工植牙的優點1. 不必修磨自然牙齒2. 維持缺牙區齒槽骨高度及寬度3. 口腔衛生維護容易，減少蛀牙或牙周疾病 人工植牙的缺點1. 治療費用高2. 治療時間長3. 手術前必須進行植牙區齒槽骨高度和寬度與全身健康的評估</x:t>
+  </x:si>
+  <x:si>
+    <x:t>如何保養人工植牙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>植牙要得到長期的使用功能，除了有正確的咀嚼及咬合習慣外，還須維持健康的植體周圍牙齦組織。請牙醫診所醫師教導適合且有效的植牙清潔方式和工具，並養成良好的口腔衛生環境。更重要是要有定期的（平均6個月）植牙回診檢查。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>植牙流程</x:t>
+  </x:si>
+  <x:si>
+    <x:t>經過詳細評估後，醫師如何著手植牙呢？一般程序如下：一、麻醉：只需要局部麻醉，和補牙拔牙所做的麻醉完全一樣。不須全身麻醉，很安全。 二、翻瓣：把植牙部位牙齦皮瓣翻開，露出齒槽骨表面。條件允許時，可以不翻瓣直接鑽骨。 三、鑽骨：在齒槽骨上，以骨鑚鑽骨，由小到大分幾次製造並擴大出一個骨窩洞。 四、植入人工牙根：將適當大小的人工牙根鎖入鑽好的骨窩洞中。 五、附加手術：在植牙前後，有時會合併上顎鼻竇增高術或組織引導再生手術（補骨）。 六、縫合：將翻開的皮瓣縫合，可分兩種方式：1. 單一階段手術：縫合時露出植體接頭，下回做假牙時不用再開刀。2. 兩階段手術：將植體完全密縫在皮瓣內不露出，做假牙前再做一次簡單的露頭手術。兩種術式各有其適用性，醫師會依狀況判斷使用。使用不翻瓣手術也就省了縫合步驟。 七、製作假牙：植入人工牙根後何時能做假牙完全視條件而定，良好的是植入當天就能做，慢的也可能等上半年。製作假牙前，先將人工牙根接上支台齒當做柱心，假牙套在支台齒上面。
+患者應當建立一個正確的觀念，植牙重要的是長期穩定的功能及美觀，而不是要求醫師在植牙過程中比快，依據每位患者不同的條件，按部就班把程序完成才重要。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>人工植牙有何危險性或併發症 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>人工植牙之成功率以目前材料及對於植牙知識之累積，已比十年前提高很多！但是只要是手術就會有潛在之風險，常見之問題不外術後出血，傷害到神經及上顎竇，以及植體沒有骨整合脫落掉出，另外傷口感染，也是較常發生之併發症，植牙雖說有風險，但只要術前詳細評估患者全身及口內狀況，術中減少手術造成之外傷，術後良好之照護，植牙之併發症是不高的，切勿聽信傳言而錯失了植牙可以帶來生活品質的提升。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>長期服用哪些會影響植牙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>紅花在中藥理論上有活血去淤，銀杏則有腦清、記明之功效。文獻報導這兩種萃取液皆有抗凝血作用，魚油中的EPA成分亦會防止血小板凝集，與Aspirin對血小板之作用雷同。皆會導致手術時之出血不止及術後的傷口止血，長期服用這些物品，植牙手術前能檢測凝血時間是否正常。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>高血壓病患是否可植牙 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>需視高血壓的情況而定。  一、控制良好或輕度高血壓(小於160/105mmHg)且無其他全身性疾病，可做簡易植牙手術；扁狀植體手術、多顆根狀型植牙手術、牙脊增高術、竇下增高術、單側骨膜下植體手術、自體骨移植手術、兩側竇下增高術及全口植牙手術則宜口服輕度鎮靜劑。 二、中度高血壓患者(小於190/125mmHg)宜轉介至內科做更好的藥物控制，鎮靜後可做簡易植牙手術。 三、高度高血壓患者(大於190/125mmHg)不宜人工植牙手術。 血壓140/90mmHg以下為正常。高血壓患者治療時應該注意服用降血壓藥物之副作用，如：低血壓、脫水、口腔乾燥等。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>何謂骨整合</x:t>
+  </x:si>
+  <x:si>
+    <x:t>以生物相容性的材料植入骨中，經一段癒合期，彼此之介面沒有纖維組織，在光學顯微下，彼此完整接觸，電子顯微鏡下，可見一層非常薄的基質。
+植體和自然牙之分別在於植體與周圍齒槽骨之間沒有牙周韌帶(PDL)的存在,而是產生新的骨頭，也就是人工牙根(圖左黑色部份)和骨頭(圖右)二者之間直接結合。用光學顯微鏡觀察為植體骨頭之間有直接的接觸，簡稱骨整合。骨整合後便可以承受力量；且有較長較好的預後。現代人工植體的表面都經過特別處理，更增加骨整合的速度，縮短植牙等待的時間。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>上顎全口缺牙應該植幾顆假牙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>上顎骨原本骨質較為疏鬆，且常因上顎竇腔佔據很大空間，剩餘齒槽骨常常不足；所以植牙的數量和缺牙的數量要盡量達到缺一顆牙植一顆牙，接近一比一的數目，做固定假牙才易成功，若牙床骨條件良好，建議至少每邊植四顆；但因個人牙床骨條件差異很大，要請您的牙醫診所醫師詳細評估後才決定。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>上下顎全口缺牙時有何建議</x:t>
+  </x:si>
+  <x:si>
+    <x:t>傳統的上下顎可撤式全口活動假牙，在仔細製作，耐心練習使用後，大多數人都能使用它，來應付一般生活所需。然而，因為人工植牙的長期成功率相當高，在剩餘齒槽骨嚴重吸收的患者，植入較少數目的人工植牙，再做上覆蓋式的可撤式全口活動假牙，會提升假牙的穩定度。原則上，下顎植2至4顆，上顎需植4至6顆。</x:t>
   </x:si>
   <x:si>
     <x:t>根管治療成功率，有哪些因素會影響成功率？何時會痛？後續的贗復？</x:t>
@@ -1568,6 +1637,94 @@
         <x:v>165</x:v>
       </x:c>
     </x:row>
+    <x:row r="84" spans="1:2">
+      <x:c r="A84" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:2">
+      <x:c r="A85" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:2">
+      <x:c r="A86" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:2">
+      <x:c r="A87" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:2">
+      <x:c r="A88" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:2">
+      <x:c r="A89" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:2">
+      <x:c r="A90" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:2">
+      <x:c r="A91" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:2">
+      <x:c r="A92" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:2">
+      <x:c r="A93" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:2">
+      <x:c r="A94" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/src/Data/data.xlsx
+++ b/src/Data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188" count="188">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224" count="224">
   <x:si>
     <x:t>question</x:t>
   </x:si>
@@ -611,6 +611,199 @@
   </x:si>
   <x:si>
     <x:t>原則上，牙醫師皆會儘量保留牙齒。但對於部份牙周破壞過於嚴重的牙齒，拔牙治療仍是必要的。否則在無法清潔之處持續發炎會造成齒槽骨一直吸收，影響牙床高度及日後假牙修復的困難。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           何謂人工植牙 ?
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          利用具有生物相容性的鈦金屬材料，製成螺釘等形狀，以外科手術植入顎骨中靜待一段癒合時間，與顎骨結合成一體，取代缺失的牙根作為假牙的支柱。人工植牙已經以各種型態存在好幾世紀了，只是近四十年來因為科技的發展，才能可靠的取代自然牙齒。
+            在20世紀六十年 代中期，Branemark醫師意外地發現當鈦圓柱體放置於骨肉，在三個月內不受其他影響癒合下，鈦植體與骨頭能完整結合承受強力。自此之後，牙科醫師開始提供病人植牙這個比傳統治療更好的選擇與服務。植牙的成功率在過去十年的統計約在 90%~97% 之間。當我們將植體溫和的置入顎骨之後，由於鈦是生物相容性的金屬，能與骨頭產生結合，因此當植體與骨頭鍵結強度夠時，我們就可利用螺絲將牙冠或附連體鎖在植體上面來製作假牙。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           何謂骨整合？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+                      以生物相容性的材料植入骨中，經一段癒合期，彼此之介面沒有纖維組織，在光學顯微下，彼此完整接觸，電子顯微鏡下，可見一層非常薄的基質。
+植體和自然牙之分別在於植體與周圍齒槽骨之間沒有牙周韌帶(PDL)的存在,而是產生新的骨頭，也就是人工牙根(圖左黑色部份)和骨頭(圖右)二者之間直接結合。用光學顯微鏡觀察為植體骨頭之間有直接的接觸，簡稱骨整合。骨整合後便可以承受力量；且有較長較好的預後。現代人工植體的表面都經過特別處理，更增加骨整合的速度，縮短植牙等待的時間。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           何謂微創植牙或無翻瓣膜植牙？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+                      微創或無翻瓣膜植牙，意指在植牙手術中，不施行翻瓣手術，不把牙齦翻開，不露出牙床骨，而直接切除人工牙根置入處之牙齦，直接在牙床骨上鑽動，放入人工牙根。不翻瓣模式雖較簡化，但因手術部位視野較差，無法掌握牙床骨之狀況，必須在牙床骨骨質狀況理想、牙床骨寬度、厚度足夠時才能施行，手術前也必須有良好的術前規劃準備及術前精準之3D牙床立體X光和定位，方可施行，以避免發生無法預期之錯誤及後遺症和增加失敗之機會。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           吸菸和植牙成功率有關否？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          吸菸會降低值牙的成功率，尤其如果一天抽超過10支以上香菸的吸菸者，植牙手術成功率將明顯下降，即使初期成功後，長期之植體壽命也可能比不抽菸者短，若再加上口腔清潔不夠好，植體之預後可能較差。所以最好能戒菸，至少要少抽一些。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           人工植牙的優缺點為何？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          一、人工植牙的優點:
+           1. 不必修磨自然牙齒
+2. 維持缺牙區齒槽骨高度及寬度
+3. 口腔衛生維護容易，減少蛀牙或牙周疾病。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           年紀大、是否適合植牙？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          醫學證明植牙沒有年齡上限的問題，骨頭是活的組織，隨時在代謝生長，只要身體沒有其他問題，年齡沒有負面影響，但是年長者手術時間不宜太長。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           植牙步驟為何?
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           經過詳細評估後，醫師如何著手植牙呢？一般程序如下：
+              一、麻醉：
+              只需要局部麻醉，和補牙拔牙所做的麻醉完全一樣。不須全身麻醉，很安全。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           後牙單顆缺牙、但空隙較大、醫生建議種顆植牙、是否需要？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          基本而言，要看空隙大小，若超過一定的距離，應種兩顆植牙，以分擔力量避免因力量過大所導致的失敗。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           上顎全口缺牙，若想做固定假牙，請問每邊應該植幾顆假牙？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           上顎骨原本骨質較為疏鬆，且常因上顎竇腔佔據很大空間，剩餘齒槽骨常常不足；所以植牙的數量和缺牙的數量要盡量達到缺一顆牙植一顆牙，接近一比一的數目，做固定假牙才易成功，若牙床骨條件良好，建議至少每邊植四顆；但因個人牙床骨條件差異很大，要請您的牙醫師詳細評估後才決定。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           上下顎全口缺牙，若想上下顎可撤式活動假牙，請問要植幾顆牙？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           傳統的上下顎可撤式全口活動假牙，在仔細製作，耐心練習使用後，大多數人都能使用它，來應付一般生活所需。然而，因為人工植牙的長期成功率相當高，在剩餘齒槽骨嚴重吸收的患者，植入較少數目的人工植牙，再做上覆蓋式的可撤式全口活動假牙，會提升假牙的穩定度。原則上，下顎植2至4顆，上顎需植4至6顆。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           上下顎全口缺牙，若想植牙，經費不足怎麼辦？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          建議在需要植的部位，植入少數目（價格也較低）、但可有功用的植牙。一般人下顎的可撤式全口活動假牙會較不適應，故可在兩頦孔之間植入2顆植牙；其經濟效益較好。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           高血壓病患可以植牙嗎?
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          視高血壓的情況而定。 
+            一、控制良好或輕度高血壓(小於160/105mmHg)且無其他全身性疾病，可做簡易植牙手術；扁狀植體手術、多顆根狀型植牙手術、牙脊增高術、竇下增高術、單側骨膜下植體手術、自體骨移植手術、兩側竇下增高術及全口植牙手術則宜口服輕度鎮靜劑。 
+            二、中度高血壓患者(小於190/125mmHg)宜轉介至內科做更好的藥物控制，鎮靜後可做簡易植牙手術。 
+            三、高度高血壓患者(大於190/125mmHg)不宜人工植牙手術。 
+            血壓140/90mmHg以下為正常。高血壓患者治療時應該注意服用降血壓藥物之副作用，如：低血壓、脫水、口腔乾燥等。 
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           糖尿病患者可以植牙嗎？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          糖尿病患者大部分都可以植牙，重度者(病史上常見低血糖發作，且多種併發症，空腹血糖值變異大，常超過300mg/dl)：這類病人應會診內科處置穩定後再施行為宜。
+            中度者(週期性的症狀表現，代謝平衡，少併發症，血糖值200-300mg/dl)：須採取飲食、藥物控制至200以下、血糖降低計畫、無菌操作及術前給予抗生素。
+            輕度者(沒有症狀，血糖值在150mg/dl以下)：可 做手術，但要注意感染危險控制。手術當天若無法正常進食，則insulin的量可給予半量。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           長期服用銀杏、紅花、深海魚油 Aspirin 是否會影響植牙?
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          紅花在中藥理論上有活血去淤，銀杏則有腦清、記明之功效。文獻報導這兩種萃取液皆有抗凝血作用，魚油中的EPA成分亦會防止血小板凝集，與Aspirin對血小板之作用雷同。皆會導致手術時之出血不止及術後的傷口止血，長期服用這些物品，手術前能檢測凝血時間是否正常。　 
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           植牙是否要停服其他用藥？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          植牙時，需考慮患者有無長期服用藥物，以免影響植牙手術及日後成功率，是否停服其他用藥仍需要請教您的內科醫師。首先要考慮有無服用抗凝血劑，如Aspirin或其他活血中藥(如銀杏、紅花或深海魚油)，以避免術後流血不止，增加困擾。　 
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           人工植牙有何危險性？併發症？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          人工植牙之成功率以目前材料及對於植牙知識之累積，已比十年前提高很多！但是只要是手術就會有潛在之風險，常見之問題不外術後出血，傷害到神經及上顎竇，以及植體沒有骨整合脫落掉出，另外傷口感染，也是較常發生之併發症，植牙雖說有風險，但只要術前詳細評估患者全身及口內狀況，術中減少手術造成之外傷，術後良好之照護，植牙之併發症是不高的，切勿聽信傳言而錯失了植牙可以帶來生活品質的提升。 
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           植牙後一年、植牙周圍化膿為何？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          儘快找醫師處理，及早控制好化膿狀況，控制好植體周圍囊袋，只要植體周圍骨頭不要被破壞太多，植體仍可以維持很久，但如不處理，長期發炎及膿腫，可造成植體周圍骨質破壞而造成植體失敗。
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+           請問如何保養人工植牙？
+        </x:t>
+  </x:si>
+  <x:si>
+    <x:t>
+          植牙要得到長期的使用功能，除了有正確的咀嚼及咬合習慣外，還須維持健康的植體周圍牙齦組織。請醫師教導適合且有效的植牙清潔方式和工具，並養成良好的口腔衛生環境。更重要是要有定期的(平均6個月)植牙回診檢查。
+        </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1725,6 +1918,702 @@
         <x:v>187</x:v>
       </x:c>
     </x:row>
+    <x:row r="95" spans="1:2">
+      <x:c r="A95" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:2">
+      <x:c r="A96" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:2">
+      <x:c r="A97" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:2">
+      <x:c r="A98" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:2">
+      <x:c r="A99" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:2">
+      <x:c r="A100" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:2">
+      <x:c r="A101" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:2">
+      <x:c r="A102" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:2">
+      <x:c r="A103" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:2">
+      <x:c r="A104" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:2">
+      <x:c r="A105" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:2">
+      <x:c r="A106" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:2">
+      <x:c r="A107" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:2">
+      <x:c r="A108" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:2">
+      <x:c r="A109" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:2">
+      <x:c r="A110" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:2">
+      <x:c r="A111" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:2">
+      <x:c r="A112" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:2">
+      <x:c r="A113" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:2">
+      <x:c r="A114" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:2">
+      <x:c r="A115" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:2">
+      <x:c r="A116" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:2">
+      <x:c r="A117" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:2">
+      <x:c r="A118" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:2">
+      <x:c r="A119" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:2">
+      <x:c r="A120" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:2">
+      <x:c r="A121" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:2">
+      <x:c r="A122" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:2">
+      <x:c r="A123" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:2">
+      <x:c r="A124" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:2">
+      <x:c r="A125" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:2">
+      <x:c r="A126" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:2">
+      <x:c r="A127" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:2">
+      <x:c r="A128" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:2">
+      <x:c r="A129" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:2">
+      <x:c r="A130" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:2">
+      <x:c r="A131" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:2">
+      <x:c r="A132" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:2">
+      <x:c r="A133" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:2">
+      <x:c r="A134" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:2">
+      <x:c r="A135" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:2">
+      <x:c r="A136" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:2">
+      <x:c r="A137" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:2">
+      <x:c r="A138" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:2">
+      <x:c r="A139" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:2">
+      <x:c r="A140" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:2">
+      <x:c r="A141" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:2">
+      <x:c r="A142" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:2">
+      <x:c r="A143" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:2">
+      <x:c r="A144" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:2">
+      <x:c r="A145" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:2">
+      <x:c r="A146" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:2">
+      <x:c r="A147" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:2">
+      <x:c r="A148" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:2">
+      <x:c r="A149" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:2">
+      <x:c r="A150" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:2">
+      <x:c r="A151" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:2">
+      <x:c r="A152" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:2">
+      <x:c r="A153" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:2">
+      <x:c r="A154" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:2">
+      <x:c r="A155" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:2">
+      <x:c r="A156" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:2">
+      <x:c r="A157" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:2">
+      <x:c r="A158" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:2">
+      <x:c r="A159" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:2">
+      <x:c r="A160" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:2">
+      <x:c r="A161" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:2">
+      <x:c r="A162" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:2">
+      <x:c r="A163" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:2">
+      <x:c r="A164" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:2">
+      <x:c r="A165" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:2">
+      <x:c r="A166" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:2">
+      <x:c r="A167" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:2">
+      <x:c r="A168" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:2">
+      <x:c r="A169" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:2">
+      <x:c r="A170" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:2">
+      <x:c r="A171" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:2">
+      <x:c r="A172" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:2">
+      <x:c r="A173" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:2">
+      <x:c r="A174" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:2">
+      <x:c r="A175" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:2">
+      <x:c r="A176" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:2">
+      <x:c r="A177" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:2">
+      <x:c r="A178" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:2">
+      <x:c r="A179" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:2">
+      <x:c r="A180" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:2">
+      <x:c r="A181" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
